--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_36ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2652,28 +2652,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>875.8002587526137</v>
+        <v>1091.012076055011</v>
       </c>
       <c r="AB2" t="n">
-        <v>1198.308551605839</v>
+        <v>1492.770854514273</v>
       </c>
       <c r="AC2" t="n">
-        <v>1083.943665277192</v>
+        <v>1350.302899276482</v>
       </c>
       <c r="AD2" t="n">
-        <v>875800.2587526137</v>
+        <v>1091012.076055011</v>
       </c>
       <c r="AE2" t="n">
-        <v>1198308.551605839</v>
+        <v>1492770.854514272</v>
       </c>
       <c r="AF2" t="n">
         <v>3.701784524180449e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.39583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1083943.665277192</v>
+        <v>1350302.899276482</v>
       </c>
     </row>
     <row r="3">
@@ -2758,28 +2758,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>565.0027617313515</v>
+        <v>721.5849366381441</v>
       </c>
       <c r="AB3" t="n">
-        <v>773.0617047634832</v>
+        <v>987.3043443889774</v>
       </c>
       <c r="AC3" t="n">
-        <v>699.2817806597727</v>
+        <v>893.0774034508429</v>
       </c>
       <c r="AD3" t="n">
-        <v>565002.7617313515</v>
+        <v>721584.9366381441</v>
       </c>
       <c r="AE3" t="n">
-        <v>773061.7047634833</v>
+        <v>987304.3443889774</v>
       </c>
       <c r="AF3" t="n">
         <v>5.145179442320119e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.50925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>699281.7806597727</v>
+        <v>893077.4034508429</v>
       </c>
     </row>
     <row r="4">
@@ -2864,28 +2864,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>492.577005339143</v>
+        <v>629.6163031240199</v>
       </c>
       <c r="AB4" t="n">
-        <v>673.9655896687974</v>
+        <v>861.4688026451967</v>
       </c>
       <c r="AC4" t="n">
-        <v>609.6432597074526</v>
+        <v>779.2514291997967</v>
       </c>
       <c r="AD4" t="n">
-        <v>492577.005339143</v>
+        <v>629616.3031240199</v>
       </c>
       <c r="AE4" t="n">
-        <v>673965.5896687974</v>
+        <v>861468.8026451967</v>
       </c>
       <c r="AF4" t="n">
         <v>5.687469584901905e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.5925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>609643.2597074526</v>
+        <v>779251.4291997966</v>
       </c>
     </row>
     <row r="5">
@@ -2970,28 +2970,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>460.0301953156204</v>
+        <v>587.2136520224445</v>
       </c>
       <c r="AB5" t="n">
-        <v>629.4336083306938</v>
+        <v>803.4516247350801</v>
       </c>
       <c r="AC5" t="n">
-        <v>569.3613481672294</v>
+        <v>726.771329321801</v>
       </c>
       <c r="AD5" t="n">
-        <v>460030.1953156204</v>
+        <v>587213.6520224445</v>
       </c>
       <c r="AE5" t="n">
-        <v>629433.6083306938</v>
+        <v>803451.6247350802</v>
       </c>
       <c r="AF5" t="n">
         <v>5.996245442530995e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.18055555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>569361.3481672293</v>
+        <v>726771.329321801</v>
       </c>
     </row>
     <row r="6">
@@ -3076,28 +3076,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>434.63448162566</v>
+        <v>561.7837729137034</v>
       </c>
       <c r="AB6" t="n">
-        <v>594.6860724802744</v>
+        <v>768.6573422514132</v>
       </c>
       <c r="AC6" t="n">
-        <v>537.9300683699012</v>
+        <v>695.297764324293</v>
       </c>
       <c r="AD6" t="n">
-        <v>434634.48162566</v>
+        <v>561783.7729137033</v>
       </c>
       <c r="AE6" t="n">
-        <v>594686.0724802745</v>
+        <v>768657.3422514132</v>
       </c>
       <c r="AF6" t="n">
         <v>6.187586125497462e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.37037037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>537930.0683699012</v>
+        <v>695297.764324293</v>
       </c>
     </row>
     <row r="7">
@@ -3182,28 +3182,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>413.2464542158538</v>
+        <v>540.4630653116016</v>
       </c>
       <c r="AB7" t="n">
-        <v>565.4220298050025</v>
+        <v>739.4854095069826</v>
       </c>
       <c r="AC7" t="n">
-        <v>511.4589448552151</v>
+        <v>668.909959897926</v>
       </c>
       <c r="AD7" t="n">
-        <v>413246.4542158538</v>
+        <v>540463.0653116015</v>
       </c>
       <c r="AE7" t="n">
-        <v>565422.0298050025</v>
+        <v>739485.4095069825</v>
       </c>
       <c r="AF7" t="n">
         <v>6.30746221603067e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.88425925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>511458.9448552151</v>
+        <v>668909.959897926</v>
       </c>
     </row>
     <row r="8">
@@ -3288,28 +3288,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>410.7465943584584</v>
+        <v>537.963205454206</v>
       </c>
       <c r="AB8" t="n">
-        <v>562.0016112620805</v>
+        <v>736.0649909640607</v>
       </c>
       <c r="AC8" t="n">
-        <v>508.3649662574421</v>
+        <v>665.8159813001531</v>
       </c>
       <c r="AD8" t="n">
-        <v>410746.5943584584</v>
+        <v>537963.205454206</v>
       </c>
       <c r="AE8" t="n">
-        <v>562001.6112620805</v>
+        <v>736064.9909640608</v>
       </c>
       <c r="AF8" t="n">
         <v>6.325769085060062e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.81481481481482</v>
       </c>
       <c r="AH8" t="n">
-        <v>508364.9662574421</v>
+        <v>665815.9813001531</v>
       </c>
     </row>
   </sheetData>
@@ -3585,28 +3585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>701.0364531357832</v>
+        <v>884.8654017613521</v>
       </c>
       <c r="AB2" t="n">
-        <v>959.1890027259351</v>
+        <v>1210.711880196279</v>
       </c>
       <c r="AC2" t="n">
-        <v>867.6453505359916</v>
+        <v>1095.163237595142</v>
       </c>
       <c r="AD2" t="n">
-        <v>701036.4531357832</v>
+        <v>884865.4017613521</v>
       </c>
       <c r="AE2" t="n">
-        <v>959189.0027259351</v>
+        <v>1210711.880196279</v>
       </c>
       <c r="AF2" t="n">
         <v>4.630593336555331e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.08333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>867645.3505359916</v>
+        <v>1095163.237595142</v>
       </c>
     </row>
     <row r="3">
@@ -3691,28 +3691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>488.8525460858631</v>
+        <v>624.3129143796723</v>
       </c>
       <c r="AB3" t="n">
-        <v>668.8696202069142</v>
+        <v>854.2124721961818</v>
       </c>
       <c r="AC3" t="n">
-        <v>605.0336424187736</v>
+        <v>772.6876327445119</v>
       </c>
       <c r="AD3" t="n">
-        <v>488852.5460858631</v>
+        <v>624312.9143796723</v>
       </c>
       <c r="AE3" t="n">
-        <v>668869.6202069141</v>
+        <v>854212.4721961818</v>
       </c>
       <c r="AF3" t="n">
         <v>6.050426316480286e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.37962962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>605033.6424187736</v>
+        <v>772687.6327445119</v>
       </c>
     </row>
     <row r="4">
@@ -3797,28 +3797,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>437.061867142059</v>
+        <v>562.84168628576</v>
       </c>
       <c r="AB4" t="n">
-        <v>598.0073284325025</v>
+        <v>770.1048259989051</v>
       </c>
       <c r="AC4" t="n">
-        <v>540.9343483154606</v>
+        <v>696.6071022544805</v>
       </c>
       <c r="AD4" t="n">
-        <v>437061.867142059</v>
+        <v>562841.68628576</v>
       </c>
       <c r="AE4" t="n">
-        <v>598007.3284325025</v>
+        <v>770104.8259989051</v>
       </c>
       <c r="AF4" t="n">
         <v>6.569305606980605e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.14583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>540934.3483154606</v>
+        <v>696607.1022544806</v>
       </c>
     </row>
     <row r="5">
@@ -3903,28 +3903,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>407.8943627022785</v>
+        <v>524.0277981146522</v>
       </c>
       <c r="AB5" t="n">
-        <v>558.0990620785153</v>
+        <v>716.9979518553007</v>
       </c>
       <c r="AC5" t="n">
-        <v>504.8348708906943</v>
+        <v>648.5686736431758</v>
       </c>
       <c r="AD5" t="n">
-        <v>407894.3627022785</v>
+        <v>524027.7981146523</v>
       </c>
       <c r="AE5" t="n">
-        <v>558099.0620785153</v>
+        <v>716997.9518553007</v>
       </c>
       <c r="AF5" t="n">
         <v>6.853005121832368e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.05787037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>504834.8708906943</v>
+        <v>648568.6736431757</v>
       </c>
     </row>
     <row r="6">
@@ -4009,28 +4009,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>391.4071440952436</v>
+        <v>517.2201176278683</v>
       </c>
       <c r="AB6" t="n">
-        <v>535.5405222156202</v>
+        <v>707.6833830796163</v>
       </c>
       <c r="AC6" t="n">
-        <v>484.4292864112042</v>
+        <v>640.1430742383633</v>
       </c>
       <c r="AD6" t="n">
-        <v>391407.1440952435</v>
+        <v>517220.1176278683</v>
       </c>
       <c r="AE6" t="n">
-        <v>535540.5222156201</v>
+        <v>707683.3830796164</v>
       </c>
       <c r="AF6" t="n">
         <v>6.942328923056615e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.7337962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>484429.2864112042</v>
+        <v>640143.0742383633</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>397.9975722965624</v>
+        <v>528.9743166527336</v>
       </c>
       <c r="AB2" t="n">
-        <v>544.5578368298367</v>
+        <v>723.7659967441001</v>
       </c>
       <c r="AC2" t="n">
-        <v>492.5860011745204</v>
+        <v>654.6907858267988</v>
       </c>
       <c r="AD2" t="n">
-        <v>397997.5722965624</v>
+        <v>528974.3166527336</v>
       </c>
       <c r="AE2" t="n">
-        <v>544557.8368298367</v>
+        <v>723765.9967441001</v>
       </c>
       <c r="AF2" t="n">
         <v>8.678075504353914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.62731481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>492586.0011745205</v>
+        <v>654690.7858267988</v>
       </c>
     </row>
     <row r="3">
@@ -4412,28 +4412,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>356.9210021345318</v>
+        <v>478.5422647509765</v>
       </c>
       <c r="AB3" t="n">
-        <v>488.3550613637674</v>
+        <v>654.7626384270121</v>
       </c>
       <c r="AC3" t="n">
-        <v>441.7471397178421</v>
+        <v>592.273011180672</v>
       </c>
       <c r="AD3" t="n">
-        <v>356921.0021345317</v>
+        <v>478542.2647509765</v>
       </c>
       <c r="AE3" t="n">
-        <v>488355.0613637674</v>
+        <v>654762.6384270121</v>
       </c>
       <c r="AF3" t="n">
         <v>9.347643021550616e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.64814814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>441747.1397178421</v>
+        <v>592273.011180672</v>
       </c>
     </row>
   </sheetData>
@@ -4709,28 +4709,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>487.8733529178758</v>
+        <v>639.4588243282719</v>
       </c>
       <c r="AB2" t="n">
-        <v>667.5298449155201</v>
+        <v>874.9357743782441</v>
       </c>
       <c r="AC2" t="n">
-        <v>603.8217334008037</v>
+        <v>791.4331320516555</v>
       </c>
       <c r="AD2" t="n">
-        <v>487873.3529178757</v>
+        <v>639458.8243282719</v>
       </c>
       <c r="AE2" t="n">
-        <v>667529.8449155202</v>
+        <v>874935.7743782441</v>
       </c>
       <c r="AF2" t="n">
         <v>6.8168100707168e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.45138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>603821.7334008038</v>
+        <v>791433.1320516556</v>
       </c>
     </row>
     <row r="3">
@@ -4815,28 +4815,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>379.720790899834</v>
+        <v>502.9942025700594</v>
       </c>
       <c r="AB3" t="n">
-        <v>519.5507382081445</v>
+        <v>688.218858494444</v>
       </c>
       <c r="AC3" t="n">
-        <v>469.9655449475993</v>
+        <v>622.536216560968</v>
       </c>
       <c r="AD3" t="n">
-        <v>379720.790899834</v>
+        <v>502994.2025700595</v>
       </c>
       <c r="AE3" t="n">
-        <v>519550.7382081445</v>
+        <v>688218.8584944441</v>
       </c>
       <c r="AF3" t="n">
         <v>8.120698968162368e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.56712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>469965.5449475992</v>
+        <v>622536.216560968</v>
       </c>
     </row>
     <row r="4">
@@ -4921,28 +4921,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>372.7569035397069</v>
+        <v>486.5145906925299</v>
       </c>
       <c r="AB4" t="n">
-        <v>510.0224402969911</v>
+        <v>665.6707264944433</v>
       </c>
       <c r="AC4" t="n">
-        <v>461.3466144160363</v>
+        <v>602.1400466325452</v>
       </c>
       <c r="AD4" t="n">
-        <v>372756.9035397069</v>
+        <v>486514.5906925299</v>
       </c>
       <c r="AE4" t="n">
-        <v>510022.4402969911</v>
+        <v>665670.7264944434</v>
       </c>
       <c r="AF4" t="n">
         <v>8.278887414867594e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.06944444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>461346.6144160363</v>
+        <v>602140.0466325453</v>
       </c>
     </row>
   </sheetData>
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>354.5312356887241</v>
+        <v>484.0144749464237</v>
       </c>
       <c r="AB2" t="n">
-        <v>485.0852774835585</v>
+        <v>662.2499578332983</v>
       </c>
       <c r="AC2" t="n">
-        <v>438.7894194219899</v>
+        <v>599.045751331341</v>
       </c>
       <c r="AD2" t="n">
-        <v>354531.235688724</v>
+        <v>484014.4749464237</v>
       </c>
       <c r="AE2" t="n">
-        <v>485085.2774835585</v>
+        <v>662249.9578332982</v>
       </c>
       <c r="AF2" t="n">
         <v>1.035704044598868e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.50462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>438789.4194219899</v>
+        <v>599045.751331341</v>
       </c>
     </row>
     <row r="3">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>355.4857499472566</v>
+        <v>484.9689892049564</v>
       </c>
       <c r="AB3" t="n">
-        <v>486.39128600228</v>
+        <v>663.5559663520197</v>
       </c>
       <c r="AC3" t="n">
-        <v>439.9707843206791</v>
+        <v>600.2271162300302</v>
       </c>
       <c r="AD3" t="n">
-        <v>355485.7499472566</v>
+        <v>484968.9892049563</v>
       </c>
       <c r="AE3" t="n">
-        <v>486391.28600228</v>
+        <v>663555.9663520197</v>
       </c>
       <c r="AF3" t="n">
         <v>1.035798928392061e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.50462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>439970.7843206791</v>
+        <v>600227.1162300302</v>
       </c>
     </row>
   </sheetData>
@@ -5621,28 +5621,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>739.5456625801273</v>
+        <v>933.5885859113968</v>
       </c>
       <c r="AB2" t="n">
-        <v>1011.879001994104</v>
+        <v>1277.37709026555</v>
       </c>
       <c r="AC2" t="n">
-        <v>915.3066902248854</v>
+        <v>1155.466013580611</v>
       </c>
       <c r="AD2" t="n">
-        <v>739545.6625801274</v>
+        <v>933588.5859113968</v>
       </c>
       <c r="AE2" t="n">
-        <v>1011879.001994104</v>
+        <v>1277377.09026555</v>
       </c>
       <c r="AF2" t="n">
         <v>4.370750553683769e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.34490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>915306.6902248854</v>
+        <v>1155466.013580611</v>
       </c>
     </row>
     <row r="3">
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>502.7898782478546</v>
+        <v>648.3896433114753</v>
       </c>
       <c r="AB3" t="n">
-        <v>687.9392929426504</v>
+        <v>887.1553149109893</v>
       </c>
       <c r="AC3" t="n">
-        <v>622.2833323530648</v>
+        <v>802.4864567861885</v>
       </c>
       <c r="AD3" t="n">
-        <v>502789.8782478546</v>
+        <v>648389.6433114753</v>
       </c>
       <c r="AE3" t="n">
-        <v>687939.2929426504</v>
+        <v>887155.3149109894</v>
       </c>
       <c r="AF3" t="n">
         <v>5.797550260700261e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.91203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>622283.3323530648</v>
+        <v>802486.4567861884</v>
       </c>
     </row>
     <row r="4">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>448.4854531455634</v>
+        <v>584.3762895103573</v>
       </c>
       <c r="AB4" t="n">
-        <v>613.637582775543</v>
+        <v>799.5694201704429</v>
       </c>
       <c r="AC4" t="n">
-        <v>555.072873121201</v>
+        <v>723.2596369121043</v>
       </c>
       <c r="AD4" t="n">
-        <v>448485.4531455634</v>
+        <v>584376.2895103573</v>
       </c>
       <c r="AE4" t="n">
-        <v>613637.582775543</v>
+        <v>799569.4201704429</v>
       </c>
       <c r="AF4" t="n">
         <v>6.323441932699846e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.50462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>555072.8731212011</v>
+        <v>723259.6369121043</v>
       </c>
     </row>
     <row r="5">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>418.7185628894802</v>
+        <v>544.8331507477428</v>
       </c>
       <c r="AB5" t="n">
-        <v>572.9092103046544</v>
+        <v>745.4647531952737</v>
       </c>
       <c r="AC5" t="n">
-        <v>518.2315593563043</v>
+        <v>674.3186434166682</v>
       </c>
       <c r="AD5" t="n">
-        <v>418718.5628894801</v>
+        <v>544833.1507477429</v>
       </c>
       <c r="AE5" t="n">
-        <v>572909.2103046544</v>
+        <v>745464.7531952737</v>
       </c>
       <c r="AF5" t="n">
         <v>6.617663264611507e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.32407407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>518231.5593563043</v>
+        <v>674318.6434166683</v>
       </c>
     </row>
     <row r="6">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>392.6580104484015</v>
+        <v>518.8399181143686</v>
       </c>
       <c r="AB6" t="n">
-        <v>537.2520127443394</v>
+        <v>709.8996655658002</v>
       </c>
       <c r="AC6" t="n">
-        <v>485.9774346859546</v>
+        <v>642.1478378346376</v>
       </c>
       <c r="AD6" t="n">
-        <v>392658.0104484014</v>
+        <v>518839.9181143686</v>
       </c>
       <c r="AE6" t="n">
-        <v>537252.0127443394</v>
+        <v>709899.6655658002</v>
       </c>
       <c r="AF6" t="n">
         <v>6.827324922391078e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.54861111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>485977.4346859546</v>
+        <v>642147.8378346376</v>
       </c>
     </row>
     <row r="7">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>393.1547630871601</v>
+        <v>519.3366707531274</v>
       </c>
       <c r="AB7" t="n">
-        <v>537.9316916198688</v>
+        <v>710.5793444413295</v>
       </c>
       <c r="AC7" t="n">
-        <v>486.5922459635386</v>
+        <v>642.7626491122218</v>
       </c>
       <c r="AD7" t="n">
-        <v>393154.7630871601</v>
+        <v>519336.6707531273</v>
       </c>
       <c r="AE7" t="n">
-        <v>537931.6916198689</v>
+        <v>710579.3444413295</v>
       </c>
       <c r="AF7" t="n">
         <v>6.836302148069484e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.51388888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>486592.2459635386</v>
+        <v>642762.6491122218</v>
       </c>
     </row>
   </sheetData>
@@ -6448,28 +6448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>357.9078961035488</v>
+        <v>486.4596679608625</v>
       </c>
       <c r="AB2" t="n">
-        <v>489.7053732308656</v>
+        <v>665.5955787899559</v>
       </c>
       <c r="AC2" t="n">
-        <v>442.968579715519</v>
+        <v>602.0720709195037</v>
       </c>
       <c r="AD2" t="n">
-        <v>357907.8961035488</v>
+        <v>486459.6679608625</v>
       </c>
       <c r="AE2" t="n">
-        <v>489705.3732308656</v>
+        <v>665595.5787899559</v>
       </c>
       <c r="AF2" t="n">
         <v>1.099794792899758e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.31481481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>442968.579715519</v>
+        <v>602072.0709195037</v>
       </c>
     </row>
   </sheetData>
@@ -6745,28 +6745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>584.6334884461951</v>
+        <v>747.637032767277</v>
       </c>
       <c r="AB2" t="n">
-        <v>799.9213311012724</v>
+        <v>1022.949971650222</v>
       </c>
       <c r="AC2" t="n">
-        <v>723.5779619576056</v>
+        <v>925.3210620752263</v>
       </c>
       <c r="AD2" t="n">
-        <v>584633.4884461951</v>
+        <v>747637.032767277</v>
       </c>
       <c r="AE2" t="n">
-        <v>799921.3311012724</v>
+        <v>1022949.971650222</v>
       </c>
       <c r="AF2" t="n">
         <v>5.555942881851335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.61111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>723577.9619576056</v>
+        <v>925321.0620752263</v>
       </c>
     </row>
     <row r="3">
@@ -6851,28 +6851,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>429.4307023934469</v>
+        <v>563.6347499449688</v>
       </c>
       <c r="AB3" t="n">
-        <v>587.5660321602232</v>
+        <v>771.1899306849339</v>
       </c>
       <c r="AC3" t="n">
-        <v>531.4895547049563</v>
+        <v>697.5886460722287</v>
       </c>
       <c r="AD3" t="n">
-        <v>429430.7023934469</v>
+        <v>563634.7499449688</v>
       </c>
       <c r="AE3" t="n">
-        <v>587566.0321602232</v>
+        <v>771189.9306849339</v>
       </c>
       <c r="AF3" t="n">
         <v>6.935893499474591e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.9212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>531489.5547049562</v>
+        <v>697588.6460722287</v>
       </c>
     </row>
     <row r="4">
@@ -6957,28 +6957,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>392.3187172423404</v>
+        <v>516.8670012025649</v>
       </c>
       <c r="AB4" t="n">
-        <v>536.787776811247</v>
+        <v>707.200233608119</v>
       </c>
       <c r="AC4" t="n">
-        <v>485.5575047787572</v>
+        <v>639.7060358743212</v>
       </c>
       <c r="AD4" t="n">
-        <v>392318.7172423404</v>
+        <v>516867.0012025649</v>
       </c>
       <c r="AE4" t="n">
-        <v>536787.776811247</v>
+        <v>707200.233608119</v>
       </c>
       <c r="AF4" t="n">
         <v>7.437019024826847e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.10416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>485557.5047787572</v>
+        <v>639706.0358743211</v>
       </c>
     </row>
     <row r="5">
@@ -7063,28 +7063,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>377.7306123120908</v>
+        <v>502.3462160800196</v>
       </c>
       <c r="AB5" t="n">
-        <v>516.8276880639116</v>
+        <v>687.3322547916252</v>
       </c>
       <c r="AC5" t="n">
-        <v>467.5023788873071</v>
+        <v>621.73422907119</v>
       </c>
       <c r="AD5" t="n">
-        <v>377730.6123120908</v>
+        <v>502346.2160800196</v>
       </c>
       <c r="AE5" t="n">
-        <v>516827.6880639116</v>
+        <v>687332.2547916252</v>
       </c>
       <c r="AF5" t="n">
         <v>7.517850927016635e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.83796296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>467502.3788873071</v>
+        <v>621734.22907119</v>
       </c>
     </row>
   </sheetData>
@@ -7360,28 +7360,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>653.663297160414</v>
+        <v>836.9656845580215</v>
       </c>
       <c r="AB2" t="n">
-        <v>894.3709607642952</v>
+        <v>1145.173373932301</v>
       </c>
       <c r="AC2" t="n">
-        <v>809.0134515264772</v>
+        <v>1035.879634385126</v>
       </c>
       <c r="AD2" t="n">
-        <v>653663.297160414</v>
+        <v>836965.6845580215</v>
       </c>
       <c r="AE2" t="n">
-        <v>894370.9607642952</v>
+        <v>1145173.373932301</v>
       </c>
       <c r="AF2" t="n">
         <v>4.917350788929689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.8449074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>809013.4515264772</v>
+        <v>1035879.634385126</v>
       </c>
     </row>
     <row r="3">
@@ -7466,28 +7466,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>466.0153442081341</v>
+        <v>610.7133698720218</v>
       </c>
       <c r="AB3" t="n">
-        <v>637.6227530915648</v>
+        <v>835.6049754312542</v>
       </c>
       <c r="AC3" t="n">
-        <v>576.7689324456595</v>
+        <v>755.8560093550434</v>
       </c>
       <c r="AD3" t="n">
-        <v>466015.3442081342</v>
+        <v>610713.3698720217</v>
       </c>
       <c r="AE3" t="n">
-        <v>637622.7530915649</v>
+        <v>835604.9754312541</v>
       </c>
       <c r="AF3" t="n">
         <v>6.312496212367542e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.92824074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>576768.9324456595</v>
+        <v>755856.0093550434</v>
       </c>
     </row>
     <row r="4">
@@ -7572,28 +7572,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>415.5304454746587</v>
+        <v>550.5773807051164</v>
       </c>
       <c r="AB4" t="n">
-        <v>568.5470874078821</v>
+        <v>753.3242620404926</v>
       </c>
       <c r="AC4" t="n">
-        <v>514.2857513465219</v>
+        <v>681.4280517685894</v>
       </c>
       <c r="AD4" t="n">
-        <v>415530.4454746587</v>
+        <v>550577.3807051164</v>
       </c>
       <c r="AE4" t="n">
-        <v>568547.0874078821</v>
+        <v>753324.2620404926</v>
       </c>
       <c r="AF4" t="n">
         <v>6.839425932386642e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.77546296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>514285.7513465219</v>
+        <v>681428.0517685894</v>
       </c>
     </row>
     <row r="5">
@@ -7678,28 +7678,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>387.8712631113835</v>
+        <v>513.3012733271919</v>
       </c>
       <c r="AB5" t="n">
-        <v>530.7025738614431</v>
+        <v>702.3214474202223</v>
       </c>
       <c r="AC5" t="n">
-        <v>480.0530650578466</v>
+        <v>635.2928741927778</v>
       </c>
       <c r="AD5" t="n">
-        <v>387871.2631113835</v>
+        <v>513301.2733271919</v>
       </c>
       <c r="AE5" t="n">
-        <v>530702.5738614431</v>
+        <v>702321.4474202223</v>
       </c>
       <c r="AF5" t="n">
         <v>7.100149539517481e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.82638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>480053.0650578466</v>
+        <v>635292.8741927778</v>
       </c>
     </row>
     <row r="6">
@@ -7784,28 +7784,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>387.3913587214498</v>
+        <v>512.8213689372583</v>
       </c>
       <c r="AB6" t="n">
-        <v>530.0459475032484</v>
+        <v>701.6648210620275</v>
       </c>
       <c r="AC6" t="n">
-        <v>479.4591061976971</v>
+        <v>634.6989153326282</v>
       </c>
       <c r="AD6" t="n">
-        <v>387391.3587214497</v>
+        <v>512821.3689372583</v>
       </c>
       <c r="AE6" t="n">
-        <v>530045.9475032483</v>
+        <v>701664.8210620275</v>
       </c>
       <c r="AF6" t="n">
         <v>7.107764130847238e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.80324074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>479459.1061976971</v>
+        <v>634698.9153326282</v>
       </c>
     </row>
   </sheetData>
@@ -8081,28 +8081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>832.1093571483307</v>
+        <v>1037.02740643404</v>
       </c>
       <c r="AB2" t="n">
-        <v>1138.528732524317</v>
+        <v>1418.906647903324</v>
       </c>
       <c r="AC2" t="n">
-        <v>1029.869148227308</v>
+        <v>1283.488188875418</v>
       </c>
       <c r="AD2" t="n">
-        <v>832109.3571483307</v>
+        <v>1037027.40643404</v>
       </c>
       <c r="AE2" t="n">
-        <v>1138528.732524317</v>
+        <v>1418906.647903324</v>
       </c>
       <c r="AF2" t="n">
         <v>3.906815485492765e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.01851851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>1029869.148227308</v>
+        <v>1283488.188875418</v>
       </c>
     </row>
     <row r="3">
@@ -8187,28 +8187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>540.7671957633484</v>
+        <v>696.9042245541259</v>
       </c>
       <c r="AB3" t="n">
-        <v>739.901534208351</v>
+        <v>953.5351052794526</v>
       </c>
       <c r="AC3" t="n">
-        <v>669.2863702418308</v>
+        <v>862.5310531265065</v>
       </c>
       <c r="AD3" t="n">
-        <v>540767.1957633484</v>
+        <v>696904.2245541259</v>
       </c>
       <c r="AE3" t="n">
-        <v>739901.534208351</v>
+        <v>953535.1052794526</v>
       </c>
       <c r="AF3" t="n">
         <v>5.347159507855158e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.96527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>669286.3702418308</v>
+        <v>862531.0531265065</v>
       </c>
     </row>
     <row r="4">
@@ -8293,28 +8293,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>480.4399008712218</v>
+        <v>617.0181053195332</v>
       </c>
       <c r="AB4" t="n">
-        <v>657.3590678845288</v>
+        <v>844.231392615837</v>
       </c>
       <c r="AC4" t="n">
-        <v>594.621641054875</v>
+        <v>763.659133390782</v>
       </c>
       <c r="AD4" t="n">
-        <v>480439.9008712218</v>
+        <v>617018.1053195333</v>
       </c>
       <c r="AE4" t="n">
-        <v>657359.0678845288</v>
+        <v>844231.3926158369</v>
       </c>
       <c r="AF4" t="n">
         <v>5.894695129581731e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>594621.641054875</v>
+        <v>763659.1333907821</v>
       </c>
     </row>
     <row r="5">
@@ -8399,28 +8399,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>439.562018242202</v>
+        <v>576.1733770794372</v>
       </c>
       <c r="AB5" t="n">
-        <v>601.4281454666003</v>
+        <v>788.3458334955021</v>
       </c>
       <c r="AC5" t="n">
-        <v>544.0286873729708</v>
+        <v>713.1072135970171</v>
       </c>
       <c r="AD5" t="n">
-        <v>439562.0182422021</v>
+        <v>576173.3770794371</v>
       </c>
       <c r="AE5" t="n">
-        <v>601428.1454666003</v>
+        <v>788345.8334955021</v>
       </c>
       <c r="AF5" t="n">
         <v>6.191513428692166e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.87962962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>544028.6873729709</v>
+        <v>713107.2135970171</v>
       </c>
     </row>
     <row r="6">
@@ -8505,28 +8505,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>424.0896976006387</v>
+        <v>550.9050670721789</v>
       </c>
       <c r="AB6" t="n">
-        <v>580.2582337742015</v>
+        <v>753.7726169844099</v>
       </c>
       <c r="AC6" t="n">
-        <v>524.879202340337</v>
+        <v>681.8336163459295</v>
       </c>
       <c r="AD6" t="n">
-        <v>424089.6976006387</v>
+        <v>550905.0670721789</v>
       </c>
       <c r="AE6" t="n">
-        <v>580258.2337742015</v>
+        <v>753772.6169844099</v>
       </c>
       <c r="AF6" t="n">
         <v>6.387269527079365e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.08101851851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>524879.202340337</v>
+        <v>681833.6163459294</v>
       </c>
     </row>
     <row r="7">
@@ -8611,28 +8611,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>405.5702178865193</v>
+        <v>532.4529071657639</v>
       </c>
       <c r="AB7" t="n">
-        <v>554.9190646075607</v>
+        <v>728.5255577486106</v>
       </c>
       <c r="AC7" t="n">
-        <v>501.958367915213</v>
+        <v>658.9961010091246</v>
       </c>
       <c r="AD7" t="n">
-        <v>405570.2178865193</v>
+        <v>532452.9071657639</v>
       </c>
       <c r="AE7" t="n">
-        <v>554919.0646075608</v>
+        <v>728525.5577486106</v>
       </c>
       <c r="AF7" t="n">
         <v>6.469365259995639e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.76851851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>501958.367915213</v>
+        <v>658996.1010091245</v>
       </c>
     </row>
     <row r="8">
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>406.5760497579309</v>
+        <v>533.4587390371756</v>
       </c>
       <c r="AB8" t="n">
-        <v>556.2952881481966</v>
+        <v>729.9017812892465</v>
       </c>
       <c r="AC8" t="n">
-        <v>503.2032466126726</v>
+        <v>660.240979706584</v>
       </c>
       <c r="AD8" t="n">
-        <v>406576.0497579309</v>
+        <v>533458.7390371757</v>
       </c>
       <c r="AE8" t="n">
-        <v>556295.2881481966</v>
+        <v>729901.7812892465</v>
       </c>
       <c r="AF8" t="n">
         <v>6.463966046532343e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.79166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>503203.2466126726</v>
+        <v>660240.979706584</v>
       </c>
     </row>
   </sheetData>
@@ -9014,28 +9014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>520.0863116751717</v>
+        <v>672.4021835024688</v>
       </c>
       <c r="AB2" t="n">
-        <v>711.605036222694</v>
+        <v>920.010331758814</v>
       </c>
       <c r="AC2" t="n">
-        <v>643.6904503095404</v>
+        <v>832.2058369383625</v>
       </c>
       <c r="AD2" t="n">
-        <v>520086.3116751717</v>
+        <v>672402.1835024687</v>
       </c>
       <c r="AE2" t="n">
-        <v>711605.036222694</v>
+        <v>920010.331758814</v>
       </c>
       <c r="AF2" t="n">
         <v>6.333621231297543e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.53935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>643690.4503095405</v>
+        <v>832205.8369383625</v>
       </c>
     </row>
     <row r="3">
@@ -9120,28 +9120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>402.9471933316053</v>
+        <v>526.6365193835798</v>
       </c>
       <c r="AB3" t="n">
-        <v>551.3301266918512</v>
+        <v>720.5673193841072</v>
       </c>
       <c r="AC3" t="n">
-        <v>498.7119531970729</v>
+        <v>651.7973857446717</v>
       </c>
       <c r="AD3" t="n">
-        <v>402947.1933316053</v>
+        <v>526636.5193835797</v>
       </c>
       <c r="AE3" t="n">
-        <v>551330.1266918512</v>
+        <v>720567.3193841072</v>
       </c>
       <c r="AF3" t="n">
         <v>7.681703291291687e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.00694444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>498711.953197073</v>
+        <v>651797.3857446717</v>
       </c>
     </row>
     <row r="4">
@@ -9226,28 +9226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>367.830561680218</v>
+        <v>491.5530421211159</v>
       </c>
       <c r="AB4" t="n">
-        <v>503.2820020299743</v>
+        <v>672.5645580198238</v>
       </c>
       <c r="AC4" t="n">
-        <v>455.2494741169589</v>
+        <v>608.3759405526969</v>
       </c>
       <c r="AD4" t="n">
-        <v>367830.561680218</v>
+        <v>491553.042121116</v>
       </c>
       <c r="AE4" t="n">
-        <v>503282.0020299743</v>
+        <v>672564.5580198239</v>
       </c>
       <c r="AF4" t="n">
         <v>8.001508189149726e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.96527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>455249.4741169589</v>
+        <v>608375.9405526968</v>
       </c>
     </row>
   </sheetData>
@@ -9523,28 +9523,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>427.5064020851578</v>
+        <v>568.4862371960792</v>
       </c>
       <c r="AB2" t="n">
-        <v>584.9331195842841</v>
+        <v>777.8279495744151</v>
       </c>
       <c r="AC2" t="n">
-        <v>529.1079236099488</v>
+        <v>703.5931417554159</v>
       </c>
       <c r="AD2" t="n">
-        <v>427506.4020851579</v>
+        <v>568486.2371960792</v>
       </c>
       <c r="AE2" t="n">
-        <v>584933.1195842841</v>
+        <v>777827.9495744151</v>
       </c>
       <c r="AF2" t="n">
         <v>7.961818774402179e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.53009259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>529107.9236099488</v>
+        <v>703593.1417554159</v>
       </c>
     </row>
     <row r="3">
@@ -9629,28 +9629,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>361.5293456941066</v>
+        <v>483.6399942600299</v>
       </c>
       <c r="AB3" t="n">
-        <v>494.6604003277469</v>
+        <v>661.7375768372524</v>
       </c>
       <c r="AC3" t="n">
-        <v>447.4507059806981</v>
+        <v>598.5822712584264</v>
       </c>
       <c r="AD3" t="n">
-        <v>361529.3456941065</v>
+        <v>483639.9942600299</v>
       </c>
       <c r="AE3" t="n">
-        <v>494660.4003277469</v>
+        <v>661737.5768372524</v>
       </c>
       <c r="AF3" t="n">
         <v>8.9648222930724e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.33564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>447450.7059806981</v>
+        <v>598582.2712584265</v>
       </c>
     </row>
   </sheetData>
@@ -16971,28 +16971,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>366.7153103564918</v>
+        <v>496.9646887848433</v>
       </c>
       <c r="AB2" t="n">
-        <v>501.7560659674363</v>
+        <v>679.9690117301366</v>
       </c>
       <c r="AC2" t="n">
-        <v>453.8691712505649</v>
+        <v>615.0737235931135</v>
       </c>
       <c r="AD2" t="n">
-        <v>366715.3103564918</v>
+        <v>496964.6887848433</v>
       </c>
       <c r="AE2" t="n">
-        <v>501756.0659674362</v>
+        <v>679969.0117301366</v>
       </c>
       <c r="AF2" t="n">
         <v>9.597124603931668e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.57407407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>453869.1712505649</v>
+        <v>615073.7235931135</v>
       </c>
     </row>
     <row r="3">
@@ -17077,28 +17077,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>351.682925012654</v>
+        <v>481.8981380222247</v>
       </c>
       <c r="AB3" t="n">
-        <v>481.188093157961</v>
+        <v>659.3542922874135</v>
       </c>
       <c r="AC3" t="n">
-        <v>435.2641768986947</v>
+        <v>596.4264440410635</v>
       </c>
       <c r="AD3" t="n">
-        <v>351682.925012654</v>
+        <v>481898.1380222247</v>
       </c>
       <c r="AE3" t="n">
-        <v>481188.093157961</v>
+        <v>659354.2922874135</v>
       </c>
       <c r="AF3" t="n">
         <v>9.812886900979597e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.99537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>435264.1768986947</v>
+        <v>596426.4440410635</v>
       </c>
     </row>
   </sheetData>
@@ -17374,28 +17374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>361.2473970457886</v>
+        <v>497.978963409842</v>
       </c>
       <c r="AB2" t="n">
-        <v>494.2746257484218</v>
+        <v>681.3567870186982</v>
       </c>
       <c r="AC2" t="n">
-        <v>447.1017491857859</v>
+        <v>616.3290515558897</v>
       </c>
       <c r="AD2" t="n">
-        <v>361247.3970457886</v>
+        <v>497978.963409842</v>
       </c>
       <c r="AE2" t="n">
-        <v>494274.6257484218</v>
+        <v>681356.7870186983</v>
       </c>
       <c r="AF2" t="n">
         <v>1.171863958993041e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.78472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>447101.7491857859</v>
+        <v>616329.0515558897</v>
       </c>
     </row>
   </sheetData>
@@ -17671,28 +17671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>619.1411697078303</v>
+        <v>792.2748377489589</v>
       </c>
       <c r="AB2" t="n">
-        <v>847.1362629748953</v>
+        <v>1084.02538570713</v>
       </c>
       <c r="AC2" t="n">
-        <v>766.286766999783</v>
+        <v>980.5675243344253</v>
       </c>
       <c r="AD2" t="n">
-        <v>619141.1697078303</v>
+        <v>792274.837748959</v>
       </c>
       <c r="AE2" t="n">
-        <v>847136.2629748953</v>
+        <v>1084025.38570713</v>
       </c>
       <c r="AF2" t="n">
         <v>5.215528446880312e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.74537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>766286.766999783</v>
+        <v>980567.5243344253</v>
       </c>
     </row>
     <row r="3">
@@ -17777,28 +17777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>453.0743081713692</v>
+        <v>587.6589156359247</v>
       </c>
       <c r="AB3" t="n">
-        <v>619.9162566678464</v>
+        <v>804.060854054688</v>
       </c>
       <c r="AC3" t="n">
-        <v>560.7523191893971</v>
+        <v>727.3224146502042</v>
       </c>
       <c r="AD3" t="n">
-        <v>453074.3081713693</v>
+        <v>587658.9156359247</v>
       </c>
       <c r="AE3" t="n">
-        <v>619916.2566678463</v>
+        <v>804060.854054688</v>
       </c>
       <c r="AF3" t="n">
         <v>6.60024991851578e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.45370370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>560752.3191893972</v>
+        <v>727322.4146502042</v>
       </c>
     </row>
     <row r="4">
@@ -17883,28 +17883,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>404.0344846859526</v>
+        <v>528.9986569582911</v>
       </c>
       <c r="AB4" t="n">
-        <v>552.8178066907784</v>
+        <v>723.7993002239821</v>
       </c>
       <c r="AC4" t="n">
-        <v>500.0576511048745</v>
+        <v>654.7209108693025</v>
       </c>
       <c r="AD4" t="n">
-        <v>404034.4846859527</v>
+        <v>528998.6569582911</v>
       </c>
       <c r="AE4" t="n">
-        <v>552817.8066907785</v>
+        <v>723799.3002239821</v>
       </c>
       <c r="AF4" t="n">
         <v>7.126234247727988e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.42824074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>500057.6511048746</v>
+        <v>654720.9108693026</v>
       </c>
     </row>
     <row r="5">
@@ -17989,28 +17989,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>382.1733847234224</v>
+        <v>507.2048768034651</v>
       </c>
       <c r="AB5" t="n">
-        <v>522.9064852783813</v>
+        <v>693.9800887424263</v>
       </c>
       <c r="AC5" t="n">
-        <v>473.0010242272731</v>
+        <v>627.7476030800203</v>
       </c>
       <c r="AD5" t="n">
-        <v>382173.3847234224</v>
+        <v>507204.8768034651</v>
       </c>
       <c r="AE5" t="n">
-        <v>522906.4852783813</v>
+        <v>693980.0887424264</v>
       </c>
       <c r="AF5" t="n">
         <v>7.303493628695007e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.81481481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>473001.0242272731</v>
+        <v>627747.6030800203</v>
       </c>
     </row>
     <row r="6">
@@ -18095,28 +18095,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>382.8386953369159</v>
+        <v>507.8701874169586</v>
       </c>
       <c r="AB6" t="n">
-        <v>523.8167926111959</v>
+        <v>694.8903960752409</v>
       </c>
       <c r="AC6" t="n">
-        <v>473.8244531058683</v>
+        <v>628.5710319586154</v>
       </c>
       <c r="AD6" t="n">
-        <v>382838.6953369159</v>
+        <v>507870.1874169586</v>
       </c>
       <c r="AE6" t="n">
-        <v>523816.7926111958</v>
+        <v>694890.3960752409</v>
       </c>
       <c r="AF6" t="n">
         <v>7.302867270458375e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.81481481481482</v>
       </c>
       <c r="AH6" t="n">
-        <v>473824.4531058682</v>
+        <v>628571.0319586154</v>
       </c>
     </row>
   </sheetData>
@@ -18392,28 +18392,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>780.030549533564</v>
+        <v>984.4251233481609</v>
       </c>
       <c r="AB2" t="n">
-        <v>1067.272210390955</v>
+        <v>1346.933883536277</v>
       </c>
       <c r="AC2" t="n">
-        <v>965.4132485571964</v>
+        <v>1218.384404125153</v>
       </c>
       <c r="AD2" t="n">
-        <v>780030.549533564</v>
+        <v>984425.1233481609</v>
       </c>
       <c r="AE2" t="n">
-        <v>1067272.210390955</v>
+        <v>1346933.883536277</v>
       </c>
       <c r="AF2" t="n">
         <v>4.129638081806912e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.65277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>965413.2485571965</v>
+        <v>1218384.404125153</v>
       </c>
     </row>
     <row r="3">
@@ -18498,28 +18498,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>526.5681151737956</v>
+        <v>672.5115618417091</v>
       </c>
       <c r="AB3" t="n">
-        <v>720.4737257264998</v>
+        <v>920.1599880279946</v>
       </c>
       <c r="AC3" t="n">
-        <v>651.7127245343868</v>
+        <v>832.3412102232563</v>
       </c>
       <c r="AD3" t="n">
-        <v>526568.1151737956</v>
+        <v>672511.5618417091</v>
       </c>
       <c r="AE3" t="n">
-        <v>720473.7257264998</v>
+        <v>920159.9880279946</v>
       </c>
       <c r="AF3" t="n">
         <v>5.564668213571652e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.43287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>651712.7245343868</v>
+        <v>832341.2102232564</v>
       </c>
     </row>
     <row r="4">
@@ -18604,28 +18604,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>459.9325038835007</v>
+        <v>596.2069415661587</v>
       </c>
       <c r="AB4" t="n">
-        <v>629.2999426034257</v>
+        <v>815.756640244723</v>
       </c>
       <c r="AC4" t="n">
-        <v>569.2404393093707</v>
+        <v>737.9019714214013</v>
       </c>
       <c r="AD4" t="n">
-        <v>459932.5038835006</v>
+        <v>596206.9415661587</v>
       </c>
       <c r="AE4" t="n">
-        <v>629299.9426034257</v>
+        <v>815756.6402447231</v>
       </c>
       <c r="AF4" t="n">
         <v>6.093855030057564e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.875</v>
       </c>
       <c r="AH4" t="n">
-        <v>569240.4393093707</v>
+        <v>737901.9714214012</v>
       </c>
     </row>
     <row r="5">
@@ -18710,28 +18710,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>429.3089626328269</v>
+        <v>555.8812369413058</v>
       </c>
       <c r="AB5" t="n">
-        <v>587.3994624489637</v>
+        <v>760.5812321324699</v>
       </c>
       <c r="AC5" t="n">
-        <v>531.3388821731573</v>
+        <v>687.99242682021</v>
       </c>
       <c r="AD5" t="n">
-        <v>429308.9626328269</v>
+        <v>555881.2369413058</v>
       </c>
       <c r="AE5" t="n">
-        <v>587399.4624489638</v>
+        <v>760581.23213247</v>
       </c>
       <c r="AF5" t="n">
         <v>6.395802801817173e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.60185185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>531338.8821731573</v>
+        <v>687992.4268202099</v>
       </c>
     </row>
     <row r="6">
@@ -18816,28 +18816,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>402.1496309246695</v>
+        <v>528.6877398143678</v>
       </c>
       <c r="AB6" t="n">
-        <v>550.2388666207116</v>
+        <v>723.37388967097</v>
       </c>
       <c r="AC6" t="n">
-        <v>497.7248414555297</v>
+        <v>654.3361009024026</v>
       </c>
       <c r="AD6" t="n">
-        <v>402149.6309246695</v>
+        <v>528687.7398143677</v>
       </c>
       <c r="AE6" t="n">
-        <v>550238.8666207116</v>
+        <v>723373.88967097</v>
       </c>
       <c r="AF6" t="n">
         <v>6.624032303151873e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.72222222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>497724.8414555297</v>
+        <v>654336.1009024025</v>
       </c>
     </row>
     <row r="7">
@@ -18922,28 +18922,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>400.5769979955731</v>
+        <v>527.1151068852714</v>
       </c>
       <c r="AB7" t="n">
-        <v>548.0871208674538</v>
+        <v>721.2221439177122</v>
       </c>
       <c r="AC7" t="n">
-        <v>495.7784552969686</v>
+        <v>652.3897147438413</v>
       </c>
       <c r="AD7" t="n">
-        <v>400576.9979955731</v>
+        <v>527115.1068852714</v>
       </c>
       <c r="AE7" t="n">
-        <v>548087.1208674537</v>
+        <v>721222.1439177122</v>
       </c>
       <c r="AF7" t="n">
         <v>6.621343920929084e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.7337962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>495778.4552969686</v>
+        <v>652389.7147438413</v>
       </c>
     </row>
   </sheetData>
@@ -19219,28 +19219,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>392.4602633602745</v>
+        <v>536.8676532763644</v>
       </c>
       <c r="AB2" t="n">
-        <v>536.9814464543783</v>
+        <v>734.5660081419868</v>
       </c>
       <c r="AC2" t="n">
-        <v>485.7326908629653</v>
+        <v>664.4600592947824</v>
       </c>
       <c r="AD2" t="n">
-        <v>392460.2633602745</v>
+        <v>536867.6532763644</v>
       </c>
       <c r="AE2" t="n">
-        <v>536981.4464543783</v>
+        <v>734566.0081419868</v>
       </c>
       <c r="AF2" t="n">
         <v>1.236974625103684e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.11805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>485732.6908629653</v>
+        <v>664460.0592947823</v>
       </c>
     </row>
   </sheetData>
@@ -19516,28 +19516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>457.6436864510288</v>
+        <v>599.2903043587469</v>
       </c>
       <c r="AB2" t="n">
-        <v>626.1682816168191</v>
+        <v>819.9754332459081</v>
       </c>
       <c r="AC2" t="n">
-        <v>566.4076596520121</v>
+        <v>741.7181287396664</v>
       </c>
       <c r="AD2" t="n">
-        <v>457643.6864510288</v>
+        <v>599290.3043587469</v>
       </c>
       <c r="AE2" t="n">
-        <v>626168.2816168191</v>
+        <v>819975.4332459081</v>
       </c>
       <c r="AF2" t="n">
         <v>7.342568558574144e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.50231481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>566407.6596520121</v>
+        <v>741718.1287396664</v>
       </c>
     </row>
     <row r="3">
@@ -19622,28 +19622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>367.7398014975941</v>
+        <v>490.3987184577978</v>
       </c>
       <c r="AB3" t="n">
-        <v>503.1578199440517</v>
+        <v>670.985161458506</v>
       </c>
       <c r="AC3" t="n">
-        <v>455.1371437950261</v>
+        <v>606.9472793824941</v>
       </c>
       <c r="AD3" t="n">
-        <v>367739.8014975941</v>
+        <v>490398.7184577978</v>
       </c>
       <c r="AE3" t="n">
-        <v>503157.8199440517</v>
+        <v>670985.161458506</v>
       </c>
       <c r="AF3" t="n">
         <v>8.576560226308824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.25462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>455137.1437950261</v>
+        <v>606947.2793824942</v>
       </c>
     </row>
     <row r="4">
@@ -19728,28 +19728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>367.9423052802583</v>
+        <v>490.601222240462</v>
       </c>
       <c r="AB4" t="n">
-        <v>503.4348945533292</v>
+        <v>671.2622360677835</v>
       </c>
       <c r="AC4" t="n">
-        <v>455.3877747924709</v>
+        <v>607.1979103799389</v>
       </c>
       <c r="AD4" t="n">
-        <v>367942.3052802583</v>
+        <v>490601.222240462</v>
       </c>
       <c r="AE4" t="n">
-        <v>503434.8945533292</v>
+        <v>671262.2360677836</v>
       </c>
       <c r="AF4" t="n">
         <v>8.583671491606658e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.23148148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>455387.7747924709</v>
+        <v>607197.9103799389</v>
       </c>
     </row>
   </sheetData>
@@ -20025,28 +20025,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>551.193797122198</v>
+        <v>713.5937468384944</v>
       </c>
       <c r="AB2" t="n">
-        <v>754.1676701767168</v>
+        <v>976.3704459586842</v>
       </c>
       <c r="AC2" t="n">
-        <v>682.1909662160231</v>
+        <v>883.1870209409143</v>
       </c>
       <c r="AD2" t="n">
-        <v>551193.797122198</v>
+        <v>713593.7468384944</v>
       </c>
       <c r="AE2" t="n">
-        <v>754167.6701767168</v>
+        <v>976370.4459586842</v>
       </c>
       <c r="AF2" t="n">
         <v>5.933049680219752e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.51157407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>682190.9662160231</v>
+        <v>883187.0209409143</v>
       </c>
     </row>
     <row r="3">
@@ -20131,28 +20131,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>416.6484868861422</v>
+        <v>550.2821075285867</v>
       </c>
       <c r="AB3" t="n">
-        <v>570.0768409915796</v>
+        <v>752.9202562538316</v>
       </c>
       <c r="AC3" t="n">
-        <v>515.6695073952139</v>
+        <v>681.0626037271818</v>
       </c>
       <c r="AD3" t="n">
-        <v>416648.4868861422</v>
+        <v>550282.1075285868</v>
       </c>
       <c r="AE3" t="n">
-        <v>570076.8409915796</v>
+        <v>752920.2562538316</v>
       </c>
       <c r="AF3" t="n">
         <v>7.281462487756283e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.48148148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>515669.5073952139</v>
+        <v>681062.6037271818</v>
       </c>
     </row>
     <row r="4">
@@ -20237,28 +20237,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>373.358887793989</v>
+        <v>497.5390457137966</v>
       </c>
       <c r="AB4" t="n">
-        <v>510.8461017113709</v>
+        <v>680.75487221917</v>
       </c>
       <c r="AC4" t="n">
-        <v>462.0916667410436</v>
+        <v>615.7845826600357</v>
       </c>
       <c r="AD4" t="n">
-        <v>373358.887793989</v>
+        <v>497539.0457137966</v>
       </c>
       <c r="AE4" t="n">
-        <v>510846.1017113709</v>
+        <v>680754.87221917</v>
       </c>
       <c r="AF4" t="n">
         <v>7.728711619667806e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.95370370370371</v>
       </c>
       <c r="AH4" t="n">
-        <v>462091.6667410436</v>
+        <v>615784.5826600357</v>
       </c>
     </row>
     <row r="5">
@@ -20343,28 +20343,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>373.1839847907439</v>
+        <v>497.3641427105516</v>
       </c>
       <c r="AB5" t="n">
-        <v>510.606791706155</v>
+        <v>680.5155622139541</v>
       </c>
       <c r="AC5" t="n">
-        <v>461.8751961468519</v>
+        <v>615.5681120658438</v>
       </c>
       <c r="AD5" t="n">
-        <v>373183.9847907439</v>
+        <v>497364.1427105516</v>
       </c>
       <c r="AE5" t="n">
-        <v>510606.7917061551</v>
+        <v>680515.5622139542</v>
       </c>
       <c r="AF5" t="n">
         <v>7.743542160927169e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.90740740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>461875.1961468519</v>
+        <v>615568.1120658438</v>
       </c>
     </row>
   </sheetData>
